--- a/java/Linux/Linux.xlsx
+++ b/java/Linux/Linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="虚拟机" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
   <si>
     <r>
       <rPr>
@@ -468,13 +468,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">vim f1   </t>
     </r>
     <r>
@@ -485,7 +478,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>命令模式</t>
+      <t xml:space="preserve">命令模式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>搜索内容，退出i，输入/**，回车</t>
     </r>
     <r>
       <rPr>
@@ -530,7 +533,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>底线命令模式</t>
+      <t>底线命令模式    用:wq就好</t>
     </r>
   </si>
   <si>
@@ -764,6 +767,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">https://ecs.console.aliyun.com/home
 </t>
     </r>
@@ -1174,31 +1185,6 @@
     <t>有了，部署篇看看，略</t>
   </si>
   <si>
-    <r>
-      <t>浏览器访问（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>主机用的是公网IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
     <t>http://39.108.174.145:8080</t>
   </si>
   <si>
@@ -1218,7 +1204,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1382,6 +1368,12 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2458,8 +2450,8 @@
   <sheetPr/>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2701,7 +2693,7 @@
     <row r="34" spans="2:2">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" ht="86.4" spans="1:2">
+    <row r="35" ht="100.8" spans="1:2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -2881,7 +2873,7 @@
   <sheetPr/>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3255,18 +3247,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
         <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/java/Linux/Linux.xlsx
+++ b/java/Linux/Linux.xlsx
@@ -457,7 +457,19 @@
 more 文件名     翻页看，空格下一页  enter下一行  q退出</t>
   </si>
   <si>
-    <t>删除文件(-rf强制删除)</t>
+    <r>
+      <t>删除文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(-rf强制删除)</t>
+    </r>
   </si>
   <si>
     <t>rm f1
@@ -468,6 +480,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">vim f1   </t>
     </r>
     <r>
@@ -1022,7 +1041,7 @@
     <t>防火墙</t>
   </si>
   <si>
-    <t>1.查看所有开启的端口，并且阿里云配置安全组开放端口</t>
+    <t>1.查看所有开启的端口</t>
   </si>
   <si>
     <t>firewall-cmd --list-ports</t>
@@ -1056,7 +1075,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）</t>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并且阿里云配置安全组开放端口</t>
     </r>
   </si>
   <si>
@@ -2450,8 +2480,8 @@
   <sheetPr/>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2683,7 +2713,7 @@
       </c>
     </row>
     <row r="33" ht="28.8" spans="1:2">
-      <c r="A33" t="s">
+      <c r="A33" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3020,7 +3050,7 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3064,11 +3094,11 @@
       <c r="B5" s="3"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" ht="28.8" spans="1:3">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C6" t="s">
@@ -3077,7 +3107,7 @@
     </row>
     <row r="7" ht="72" spans="1:3">
       <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C7" s="2" t="s">

--- a/java/Linux/Linux.xlsx
+++ b/java/Linux/Linux.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="虚拟机" sheetId="1" r:id="rId1"/>
     <sheet name="服务器购买" sheetId="2" r:id="rId2"/>
-    <sheet name="部署springboot项目" sheetId="3" r:id="rId3"/>
+    <sheet name="springboot运行环境" sheetId="3" r:id="rId3"/>
     <sheet name="Tomcat安装" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="155">
   <si>
     <r>
       <rPr>
@@ -458,6 +458,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>删除文件</t>
     </r>
     <r>
@@ -909,6 +916,10 @@
       </rPr>
       <t>工具</t>
     </r>
+  </si>
+  <si>
+    <t>360软件管家（一个月后过期了）、百度搜索安装
+建议：中文官网下载：https://www.xshellcn.com/</t>
   </si>
   <si>
     <t>下载xFtp文件上传</t>
@@ -2102,7 +2113,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53340" y="5341620"/>
+          <a:off x="53340" y="5524500"/>
           <a:ext cx="3320415" cy="2246630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2140,7 +2151,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3459480" y="5501640"/>
+          <a:off x="3459480" y="5684520"/>
           <a:ext cx="4736465" cy="1064260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2178,7 +2189,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8343900" y="5494020"/>
+          <a:off x="8343900" y="5676900"/>
           <a:ext cx="3319145" cy="2083435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2480,7 +2491,7 @@
   <sheetPr/>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -2904,7 +2915,7 @@
   <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2997,17 +3008,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B19" t="s">
-        <v>2</v>
+      <c r="B19" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -3015,10 +3026,10 @@
     </row>
     <row r="21" ht="57.6" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -3049,8 +3060,8 @@
   <sheetPr/>
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3062,31 +3073,31 @@
   <sheetData>
     <row r="2" ht="28.8" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="302.4" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" ht="331.2" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3096,31 +3107,31 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -3128,64 +3139,64 @@
     </row>
     <row r="10" ht="43.2" spans="2:3">
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>127</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3221,26 +3232,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3248,47 +3259,47 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/java/Linux/Linux.xlsx
+++ b/java/Linux/Linux.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="虚拟机" sheetId="1" r:id="rId1"/>
     <sheet name="服务器购买" sheetId="2" r:id="rId2"/>
     <sheet name="springboot运行环境" sheetId="3" r:id="rId3"/>
-    <sheet name="Tomcat安装" sheetId="4" r:id="rId4"/>
+    <sheet name="Tomcat手动安装" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="167">
   <si>
     <r>
       <rPr>
@@ -458,6 +458,25 @@
   </si>
   <si>
     <r>
+      <t>删除文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(-rf强制删除)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rm f1
+rm -rf f1   </t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -465,22 +484,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>删除文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(-rf强制删除)</t>
-    </r>
-  </si>
-  <si>
-    <t>rm f1
-rm -rf f1</t>
+      <t>能删整个文件夹</t>
+    </r>
   </si>
   <si>
     <t>vim编辑器</t>
@@ -935,26 +940,8 @@
 password: 2ae4fb28</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>安装JDK，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>要与项目用的jdk版本一致</t>
-    </r>
+    <t>安装JDK
+jdk版本 == 项目jdk</t>
   </si>
   <si>
     <t>oracle官网下载jdk
@@ -988,7 +975,8 @@
 9、保存后，重启配置：
 　　source /etc/profile
 10、检查是否安装完成：
-　　java -version</t>
+　　java -version
+    javac</t>
   </si>
   <si>
     <r>
@@ -1046,10 +1034,36 @@
 9、保存后，重启配置：
 　　source /etc/profile
 10、检查是否安装完成：
-　　java -version</t>
-  </si>
-  <si>
-    <t>防火墙</t>
+　　java -version
+    javac</t>
+  </si>
+  <si>
+    <t>运行springboot打包的项目</t>
+  </si>
+  <si>
+    <t>创建多级目录</t>
+  </si>
+  <si>
+    <t>mkdir -p /home/SpringBoot</t>
+  </si>
+  <si>
+    <t>切换目录
+Xftp上传jar包该目录</t>
+  </si>
+  <si>
+    <t>cd /home/SpringBoot</t>
+  </si>
+  <si>
+    <t>java -jar ./core-0.0.1-SNAPSHOT.jar</t>
+  </si>
+  <si>
+    <t>浏览器访问（主机用的是公网IP）</t>
+  </si>
+  <si>
+    <t>http://39.108.174.145:8062/sky/season/list</t>
+  </si>
+  <si>
+    <t>防火墙开放端口</t>
   </si>
   <si>
     <t>1.查看所有开启的端口</t>
@@ -1114,12 +1128,91 @@
     <t>systemctl restart firewalld.service</t>
   </si>
   <si>
-    <t>运行springboot打包的项目
-包是Xftp上传到/home用户目录的
-切换/home目录</t>
-  </si>
-  <si>
-    <t>java -jar ./core-0.0.1-SNAPSHOT.jar</t>
+    <t>查看防火墙服务状态</t>
+  </si>
+  <si>
+    <t>systemctl status firewalld</t>
+  </si>
+  <si>
+    <t>开启防火墙</t>
+  </si>
+  <si>
+    <t>service firewalld start</t>
+  </si>
+  <si>
+    <t>service firewalld restart</t>
+  </si>
+  <si>
+    <t>关闭防火墙</t>
+  </si>
+  <si>
+    <t>service firewalld stop</t>
+  </si>
+  <si>
+    <t>查看全部信息</t>
+  </si>
+  <si>
+    <t>firewall-cmd --list-all</t>
+  </si>
+  <si>
+    <t>部署网页</t>
+  </si>
+  <si>
+    <t>网页服务三剑客</t>
+  </si>
+  <si>
+    <t>Apache是web服务器（不能解析Java，所以扩展了Tomcat）
+Tomcat是应用服务器（能解析Java）
+nginx负载均衡服务器</t>
+  </si>
+  <si>
+    <t>Tomcat安装及环境配置（详细教程）</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/hjseo_seg/article/details/126080305</t>
+  </si>
+  <si>
+    <t>Apache Tomcat 9 软件下载（点tar.gz）</t>
+  </si>
+  <si>
+    <t>https://tomcat.apache.org/download-90.cgi</t>
+  </si>
+  <si>
+    <t>mkdir -p /home/tomcat</t>
+  </si>
+  <si>
+    <t>切换目录
+xftp上传下载的文件到该目录</t>
+  </si>
+  <si>
+    <t>cd /home/tomcat</t>
+  </si>
+  <si>
+    <t>解压到当前目录</t>
+  </si>
+  <si>
+    <t>tar -zxvf apache-tomcat-9.0.65.tar.gz</t>
+  </si>
+  <si>
+    <t>cd /home/tomcat/apache-tomcat-9.0.65/bin</t>
+  </si>
+  <si>
+    <t>启动Tomcat</t>
+  </si>
+  <si>
+    <t>./startup.sh</t>
+  </si>
+  <si>
+    <t>停止Tomcat</t>
+  </si>
+  <si>
+    <t>./shutdown.sh</t>
+  </si>
+  <si>
+    <t>开启防火墙端口（是8080）</t>
+  </si>
+  <si>
+    <t>有了，部署篇看看，略</t>
   </si>
   <si>
     <r>
@@ -1154,78 +1247,6 @@
     </r>
   </si>
   <si>
-    <t>http://39.108.174.145:8062/sky/season/list</t>
-  </si>
-  <si>
-    <t>防火墙Linux命令</t>
-  </si>
-  <si>
-    <t>查看防火墙服务状态</t>
-  </si>
-  <si>
-    <t>systemctl status firewalld</t>
-  </si>
-  <si>
-    <t>开启防火墙</t>
-  </si>
-  <si>
-    <t>service firewalld start</t>
-  </si>
-  <si>
-    <t>service firewalld restart</t>
-  </si>
-  <si>
-    <t>关闭防火墙</t>
-  </si>
-  <si>
-    <t>service firewalld stop</t>
-  </si>
-  <si>
-    <t>查看全部信息</t>
-  </si>
-  <si>
-    <t>firewall-cmd --list-all</t>
-  </si>
-  <si>
-    <t>Tomcat安装及环境配置（详细教程）</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/hjseo_seg/article/details/126080305</t>
-  </si>
-  <si>
-    <t>Apache Tomcat 9 软件下载（点tar.gz）</t>
-  </si>
-  <si>
-    <t>https://tomcat.apache.org/download-90.cgi</t>
-  </si>
-  <si>
-    <t>使用xftp上传下载的文件到/home用户目录,解压到/home目录</t>
-  </si>
-  <si>
-    <t>tar -zxvf apache-tomcat-9.0.65.tar.gz</t>
-  </si>
-  <si>
-    <t>cd /home/apache-tomcat-9.0.65/bin</t>
-  </si>
-  <si>
-    <t>启动Tomcat</t>
-  </si>
-  <si>
-    <t>./startup.sh</t>
-  </si>
-  <si>
-    <t>停止Tomcat</t>
-  </si>
-  <si>
-    <t>./startdown.sh</t>
-  </si>
-  <si>
-    <t>开启防火墙端口（是8080）</t>
-  </si>
-  <si>
-    <t>有了，部署篇看看，略</t>
-  </si>
-  <si>
     <t>http://39.108.174.145:8080</t>
   </si>
   <si>
@@ -1233,6 +1254,12 @@
   </si>
   <si>
     <t>还没，略</t>
+  </si>
+  <si>
+    <t>前端vue项目打包存放目录</t>
+  </si>
+  <si>
+    <t>cd /www/server/tomcat/webapps/ROOT</t>
   </si>
 </sst>
 </file>
@@ -1269,18 +1296,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1418,12 +1445,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1726,10 +1759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1738,16 +1771,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1756,13 +1789,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1783,28 +1816,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1813,19 +1846,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1837,61 +1867,85 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1899,13 +1953,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2491,8 +2545,8 @@
   <sheetPr/>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2502,10 +2556,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2519,15 +2573,15 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="1"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -2535,18 +2589,18 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="1"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2559,7 +2613,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2567,15 +2621,15 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2583,20 +2637,20 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
@@ -2607,7 +2661,7 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2623,7 +2677,7 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2639,7 +2693,7 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2647,7 +2701,7 @@
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2655,7 +2709,7 @@
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2663,15 +2717,15 @@
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2679,12 +2733,12 @@
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B28" t="s">
@@ -2692,18 +2746,18 @@
       </c>
     </row>
     <row r="29" ht="57.6" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" ht="57.6" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2719,37 +2773,37 @@
       <c r="A32" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" ht="28.8" spans="1:2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="2"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" ht="100.8" spans="1:2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2757,7 +2811,7 @@
       <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2765,7 +2819,7 @@
       <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2773,7 +2827,7 @@
       <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2781,7 +2835,7 @@
       <c r="A41" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2789,7 +2843,7 @@
       <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2797,7 +2851,7 @@
       <c r="A43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2810,7 +2864,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B45" t="s">
@@ -2837,7 +2891,7 @@
       <c r="A48" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2885,12 +2939,12 @@
       <c r="A54" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="1"/>
+      <c r="B55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2925,7 +2979,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B2" t="s">
@@ -2933,16 +2987,16 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2950,45 +3004,45 @@
       <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="7"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="7"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="7"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="7"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="7"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="7"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="7"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="7"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2996,23 +3050,23 @@
       <c r="A17" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3025,15 +3079,15 @@
       </c>
     </row>
     <row r="21" ht="57.6" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3058,156 +3112,174 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="40.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="28.8" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" ht="28.8" spans="1:2">
+      <c r="A2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" ht="302.4" spans="1:3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" ht="316.8" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" ht="331.2" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="345.6" spans="1:2">
+      <c r="A4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+    <row r="5" s="8" customFormat="1" spans="1:2">
+      <c r="A5" s="13" t="s">
         <v>118</v>
       </c>
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" ht="72" spans="1:3">
-      <c r="A7" s="5"/>
+    <row r="7" ht="28.8" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" ht="43.2" spans="2:3">
-      <c r="B10" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="B12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="8" t="s">
+    <row r="13" ht="72" spans="1:2">
+      <c r="A13" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
+      <c r="B13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
       <c r="B17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
       <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
       <c r="B19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
       <c r="B20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A8"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.oracle.com/java/technologies/downloads/"/>
-    <hyperlink ref="C11" r:id="rId2" display="http://39.108.174.145:8062/sky/season/list" tooltip="http://39.108.174.145:8062/sky/season/list"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.oracle.com/java/technologies/downloads/"/>
+    <hyperlink ref="B9" r:id="rId2" display="http://39.108.174.145:8062/sky/season/list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3218,10 +3290,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3231,82 +3303,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" ht="43.2" spans="1:2">
       <c r="A2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" s="2" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>152</v>
+      <c r="B8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://blog.csdn.net/hjseo_seg/article/details/126080305"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://tomcat.apache.org/download-90.cgi"/>
-    <hyperlink ref="B8" r:id="rId3" display="http://39.108.174.145:8080" tooltip="http://39.108.174.145:8080"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://blog.csdn.net/hjseo_seg/article/details/126080305"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://tomcat.apache.org/download-90.cgi"/>
+    <hyperlink ref="B12" r:id="rId3" display="http://39.108.174.145:8080" tooltip="http://39.108.174.145:8080"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/java/Linux/Linux.xlsx
+++ b/java/Linux/Linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="虚拟机" sheetId="1" r:id="rId1"/>
@@ -458,6 +458,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>删除文件</t>
     </r>
     <r>
@@ -473,6 +480,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">rm f1
 rm -rf f1   </t>
     </r>
@@ -924,7 +938,10 @@
   </si>
   <si>
     <t>360软件管家（一个月后过期了）、百度搜索安装
-建议：中文官网下载：https://www.xshellcn.com/</t>
+建议：中文官网下载：https://www.xshellcn.com/
+手把手教你下载XShell免费版
+https://blog.csdn.net/zhiboqingyun/article/details/126559617
+https://www.xshell.com/zh/</t>
   </si>
   <si>
     <t>下载xFtp文件上传</t>
@@ -1901,7 +1918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1917,9 +1934,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1943,9 +1957,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2167,7 +2178,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53340" y="5524500"/>
+          <a:off x="53340" y="6073140"/>
           <a:ext cx="3320415" cy="2246630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2205,7 +2216,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3459480" y="5684520"/>
+          <a:off x="3459480" y="6233160"/>
           <a:ext cx="4736465" cy="1064260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2243,7 +2254,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8343900" y="5676900"/>
+          <a:off x="8343900" y="6225540"/>
           <a:ext cx="3319145" cy="2083435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2556,10 +2567,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2573,7 +2584,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2581,7 +2592,7 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -2589,7 +2600,7 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2597,7 +2608,7 @@
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2613,7 +2624,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2621,15 +2632,15 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2637,20 +2648,20 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
@@ -2661,7 +2672,7 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2677,7 +2688,7 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2693,7 +2704,7 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2701,7 +2712,7 @@
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2709,7 +2720,7 @@
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2717,15 +2728,15 @@
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2733,12 +2744,12 @@
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B28" t="s">
@@ -2746,18 +2757,18 @@
       </c>
     </row>
     <row r="29" ht="57.6" spans="1:2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" ht="57.6" spans="1:2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2773,37 +2784,37 @@
       <c r="A32" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" ht="28.8" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="5"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" ht="100.8" spans="1:2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="5"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2811,7 +2822,7 @@
       <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2819,7 +2830,7 @@
       <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2827,7 +2838,7 @@
       <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2835,7 +2846,7 @@
       <c r="A41" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2843,7 +2854,7 @@
       <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2851,7 +2862,7 @@
       <c r="A43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2864,7 +2875,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B45" t="s">
@@ -2891,7 +2902,7 @@
       <c r="A48" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2939,7 +2950,7 @@
       <c r="A54" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2968,8 +2979,8 @@
   <sheetPr/>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2979,7 +2990,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B2" t="s">
@@ -2987,13 +2998,13 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3004,42 +3015,42 @@
       <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="10"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="10"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="10"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="10"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3055,18 +3066,18 @@
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="1:2">
-      <c r="A19" s="6" t="s">
+    <row r="19" ht="72" spans="1:2">
+      <c r="A19" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3079,15 +3090,15 @@
       </c>
     </row>
     <row r="21" ht="57.6" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="5"/>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3125,43 +3136,43 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" ht="28.8" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" ht="316.8" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" ht="345.6" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:2">
-      <c r="A5" s="13" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:2">
+      <c r="A5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3169,7 +3180,7 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3177,33 +3188,33 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B12" t="s">
@@ -3211,10 +3222,10 @@
       </c>
     </row>
     <row r="13" ht="72" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3227,8 +3238,8 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3292,7 +3303,7 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3349,7 +3360,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B7" t="s">
@@ -3389,7 +3400,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3405,7 +3416,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B15" t="s">
